--- a/data/trans_bre/P3A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,03; 55,8</t>
+          <t>36,51; 55,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,29; 63,89</t>
+          <t>42,71; 64,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,66; 59,66</t>
+          <t>37,67; 59,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,37; 46,73</t>
+          <t>23,25; 45,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>321,55; 1796,63</t>
+          <t>317,4; 1787,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>293,88; 1145,75</t>
+          <t>300,81; 1163,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>161,14; 530,78</t>
+          <t>161,06; 501,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,96; 97,92</t>
+          <t>33,33; 95,36</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,12; 53,12</t>
+          <t>44,27; 53,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,18; 56,68</t>
+          <t>47,09; 56,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,08; 51,98</t>
+          <t>42,03; 52,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,97; 34,66</t>
+          <t>25,25; 34,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>595,62; 1319,61</t>
+          <t>597,21; 1318,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>489,5; 1006,85</t>
+          <t>492,32; 1019,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>237,97; 433,66</t>
+          <t>244,34; 436,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,92; 57,87</t>
+          <t>37,48; 58,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,98; 54,94</t>
+          <t>47,66; 54,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,58; 50,82</t>
+          <t>43,92; 50,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,61; 44,95</t>
+          <t>37,68; 45,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,81; 41,87</t>
+          <t>25,98; 41,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>569,5; 1047,6</t>
+          <t>574,78; 1067,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>461,44; 778,45</t>
+          <t>467,72; 763,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>266,17; 422,94</t>
+          <t>264,59; 418,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,31; 82,27</t>
+          <t>39,83; 81,72</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,85; 47,0</t>
+          <t>37,87; 46,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,6; 50,44</t>
+          <t>41,27; 50,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,01; 47,17</t>
+          <t>37,96; 47,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 29,82</t>
+          <t>20,18; 29,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>284,5; 541,09</t>
+          <t>290,28; 550,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>321,46; 580,25</t>
+          <t>322,94; 581,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>238,17; 401,27</t>
+          <t>242,98; 408,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,25; 46,62</t>
+          <t>28,48; 45,64</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,88; 44,73</t>
+          <t>37,03; 44,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,47; 43,03</t>
+          <t>35,59; 43,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,8; 39,08</t>
+          <t>30,94; 39,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 24,86</t>
+          <t>16,48; 24,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>290,61; 475,36</t>
+          <t>292,11; 484,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>271,45; 451,84</t>
+          <t>272,58; 463,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>162,98; 262,5</t>
+          <t>165,78; 265,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,74; 39,57</t>
+          <t>23,78; 38,1</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,54; 47,47</t>
+          <t>43,64; 47,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,67; 47,54</t>
+          <t>43,75; 47,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,77; 43,27</t>
+          <t>39,01; 43,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,21; 30,33</t>
+          <t>24,07; 29,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>463,63; 623,0</t>
+          <t>462,41; 623,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>423,51; 558,03</t>
+          <t>423,76; 563,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>251,12; 323,52</t>
+          <t>253,95; 320,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,58; 49,89</t>
+          <t>36,28; 49,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,51; 55,6</t>
+          <t>36,86; 55,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,71; 64,48</t>
+          <t>42,08; 63,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,67; 59,35</t>
+          <t>36,9; 59,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>317,4; 1787,98</t>
+          <t>306,12; 1805,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>300,81; 1163,79</t>
+          <t>281,15; 1102,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>161,06; 501,02</t>
+          <t>156,8; 538,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,27; 53,07</t>
+          <t>43,97; 52,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,09; 56,74</t>
+          <t>47,15; 56,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,03; 52,31</t>
+          <t>41,14; 51,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>597,21; 1318,24</t>
+          <t>604,67; 1336,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>492,32; 1019,53</t>
+          <t>492,71; 1009,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>244,34; 436,59</t>
+          <t>234,69; 423,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,66; 54,98</t>
+          <t>47,57; 55,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,92; 50,9</t>
+          <t>43,59; 50,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,68; 45,06</t>
+          <t>37,61; 45,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>574,78; 1067,11</t>
+          <t>586,46; 1066,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>467,72; 763,7</t>
+          <t>448,97; 762,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>264,59; 418,99</t>
+          <t>262,3; 422,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,87; 46,71</t>
+          <t>38,1; 47,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,27; 50,31</t>
+          <t>41,49; 50,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,96; 47,05</t>
+          <t>37,66; 47,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>290,28; 550,02</t>
+          <t>289,39; 540,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>322,94; 581,7</t>
+          <t>316,7; 589,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>242,98; 408,2</t>
+          <t>234,57; 407,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,03; 44,27</t>
+          <t>36,59; 44,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,59; 43,37</t>
+          <t>35,5; 43,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,94; 39,06</t>
+          <t>30,88; 39,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>292,11; 484,66</t>
+          <t>291,03; 475,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>272,58; 463,27</t>
+          <t>272,04; 460,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>165,78; 265,22</t>
+          <t>164,91; 262,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,64; 47,7</t>
+          <t>43,53; 47,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,75; 47,89</t>
+          <t>43,69; 47,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,01; 43,19</t>
+          <t>38,82; 43,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>462,41; 623,16</t>
+          <t>466,28; 628,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>423,76; 563,65</t>
+          <t>423,69; 556,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>253,95; 320,97</t>
+          <t>254,04; 326,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P3A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>53,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>716,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>567,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>287,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>59,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,86; 55,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,08; 63,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,9; 59,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,25; 45,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>306,12; 1805,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>281,15; 1102,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>156,8; 538,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,33; 95,36</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>48,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>884,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>699,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>323,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,97; 52,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,15; 56,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,14; 51,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,25; 34,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>604,67; 1336,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>492,71; 1009,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>234,69; 423,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,48; 58,4</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>51,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>774,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>591,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>333,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,57; 55,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,59; 50,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,61; 45,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,98; 41,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>586,46; 1066,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>448,97; 762,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>262,3; 422,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,83; 81,72</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>402,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>431,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>312,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,1; 47,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,49; 50,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,66; 47,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 29,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>289,39; 540,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>316,7; 589,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>234,57; 407,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,48; 45,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>39,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>375,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>357,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>210,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,59; 44,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,5; 43,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,88; 39,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,48; 24,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>291,03; 475,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>272,04; 460,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>164,91; 262,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,78; 38,1</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>45,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>541,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>487,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>285,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,53; 47,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,69; 47,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,82; 43,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,07; 29,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>466,28; 628,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>423,69; 556,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>254,04; 326,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,28; 49,22</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1108,114 +1108,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
